--- a/On-Call-Tracker/src/inputs/SupplyList.xlsx
+++ b/On-Call-Tracker/src/inputs/SupplyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67321AF-DA05-D341-A87B-3016C608A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFE053-83AE-B542-A5FF-E2F4EACBE063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35360" yWindow="3240" windowWidth="27640" windowHeight="15580" xr2:uid="{56B12F61-64A8-7D42-83FD-E657695B6898}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Monday</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>Dineth</t>
-  </si>
-  <si>
-    <t>Marno</t>
-  </si>
-  <si>
-    <t>Phillip</t>
-  </si>
-  <si>
-    <t>Abdel</t>
   </si>
 </sst>
 </file>
@@ -428,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84638B9D-5D29-954C-B705-FDAD5B079D06}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,21 +452,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/On-Call-Tracker/src/inputs/SupplyList.xlsx
+++ b/On-Call-Tracker/src/inputs/SupplyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFE053-83AE-B542-A5FF-E2F4EACBE063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67321AF-DA05-D341-A87B-3016C608A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35360" yWindow="3240" windowWidth="27640" windowHeight="15580" xr2:uid="{56B12F61-64A8-7D42-83FD-E657695B6898}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Monday</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Dineth</t>
+  </si>
+  <si>
+    <t>Marno</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Abdel</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84638B9D-5D29-954C-B705-FDAD5B079D06}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +461,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
